--- a/data/trans_orig/P55S2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P55S2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{897DDFCF-7C36-4DBD-8845-FC15CE73740F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB787941-675B-452D-B325-6358DD85A70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{585B787D-265C-4CAC-ACEC-01345AB73EF4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{97AC94D7-A97C-4B7B-8A33-119254697BD0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2264" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2264" uniqueCount="576">
   <si>
     <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2007 (Tasa respuesta: 0,14%)</t>
   </si>
@@ -962,13 +962,10 @@
     <t>4,24%</t>
   </si>
   <si>
-    <t>22,02%</t>
-  </si>
-  <si>
     <t>2,57%</t>
   </si>
   <si>
-    <t>14,04%</t>
+    <t>13,62%</t>
   </si>
   <si>
     <t>66,01%</t>
@@ -983,19 +980,19 @@
     <t>68,26%</t>
   </si>
   <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
   </si>
   <si>
     <t>67,37%</t>
   </si>
   <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
   </si>
   <si>
     <t>19,94%</t>
@@ -1007,688 +1004,697 @@
     <t>11,68%</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
   </si>
   <si>
     <t>14,93%</t>
   </si>
   <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
     <t>4,81%</t>
   </si>
   <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
   </si>
   <si>
     <t>29,59%</t>
   </si>
   <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
   </si>
   <si>
     <t>22,43%</t>
   </si>
   <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
   </si>
   <si>
     <t>26,41%</t>
   </si>
   <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
   </si>
   <si>
     <t>25,11%</t>
   </si>
   <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
+    <t>20,31%</t>
   </si>
   <si>
     <t>3,05%</t>
@@ -1697,73 +1703,70 @@
     <t>0,78%</t>
   </si>
   <si>
-    <t>8,13%</t>
+    <t>8,04%</t>
   </si>
   <si>
     <t>7,18%</t>
   </si>
   <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
   </si>
   <si>
     <t>5,83%</t>
   </si>
   <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
+    <t>3,63%</t>
   </si>
   <si>
     <t>31,24%</t>
   </si>
   <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
   </si>
   <si>
     <t>21,25%</t>
   </si>
   <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
   </si>
   <si>
     <t>24,52%</t>
   </si>
   <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
   </si>
   <si>
     <t>9,91%</t>
   </si>
   <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
   </si>
   <si>
     <t>3,73%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
   </si>
 </sst>
 </file>
@@ -2175,7 +2178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA28344-807B-482D-BCBA-94CF7D4DBFAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851A1BD6-B358-49DD-A2D6-3DFEB8E78136}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4930,7 +4933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE29E21-5DB8-43E0-B2DC-174CC00BF671}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7EFAA5B-E119-4CB5-AB7B-43EF2109418B}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7811,7 +7814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C86EA99-6CC0-44FA-BE52-F7A2317D0CF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F81CB0-C9EA-4F30-84E3-B8AC1D0AFB19}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10692,7 +10695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D4727B-12DF-4D70-BB14-5704B0E2C884}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E4BBB3-EDEC-48FB-8665-BA32A853F087}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10939,7 +10942,7 @@
         <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -10948,13 +10951,13 @@
         <v>328</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -10969,13 +10972,13 @@
         <v>3309</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -10984,13 +10987,13 @@
         <v>5284</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -10999,13 +11002,13 @@
         <v>8593</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -11020,13 +11023,13 @@
         <v>1000</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -11035,13 +11038,13 @@
         <v>904</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -11050,13 +11053,13 @@
         <v>1904</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -11086,13 +11089,13 @@
         <v>383</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -11101,13 +11104,13 @@
         <v>383</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -11122,13 +11125,13 @@
         <v>704</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -11137,13 +11140,13 @@
         <v>412</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -11152,13 +11155,13 @@
         <v>1116</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -11194,7 +11197,7 @@
         <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -11203,13 +11206,13 @@
         <v>430</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -11277,14 +11280,14 @@
         <v>632</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
@@ -11298,7 +11301,7 @@
         <v>22</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -11349,7 +11352,7 @@
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -11400,7 +11403,7 @@
         <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -11553,7 +11556,7 @@
         <v>22</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -11568,7 +11571,7 @@
         <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>369</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -11583,13 +11586,13 @@
         <v>4412</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -11598,13 +11601,13 @@
         <v>5810</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -11613,13 +11616,13 @@
         <v>10222</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -11634,13 +11637,13 @@
         <v>666</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -11649,13 +11652,13 @@
         <v>982</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>382</v>
+        <v>79</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -11664,13 +11667,13 @@
         <v>1648</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -11744,7 +11747,7 @@
         <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -11753,13 +11756,13 @@
         <v>508</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -11768,13 +11771,13 @@
         <v>508</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -11795,7 +11798,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -11810,7 +11813,7 @@
         <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -11825,7 +11828,7 @@
         <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -11846,7 +11849,7 @@
         <v>22</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -11861,7 +11864,7 @@
         <v>22</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -11876,7 +11879,7 @@
         <v>22</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -11891,13 +11894,13 @@
         <v>4497</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
@@ -11906,13 +11909,13 @@
         <v>15085</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M25" s="7">
         <v>35</v>
@@ -11921,13 +11924,13 @@
         <v>19583</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -11942,13 +11945,13 @@
         <v>1638</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -11957,13 +11960,13 @@
         <v>9144</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M26" s="7">
         <v>20</v>
@@ -12026,10 +12029,10 @@
         <v>411</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>344</v>
+        <v>412</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -12044,13 +12047,13 @@
         <v>6022</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -12059,13 +12062,13 @@
         <v>10120</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M28" s="7">
         <v>26</v>
@@ -12074,13 +12077,13 @@
         <v>16142</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -12095,13 +12098,13 @@
         <v>825</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -12110,13 +12113,13 @@
         <v>2627</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -12125,13 +12128,13 @@
         <v>3452</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -12205,7 +12208,7 @@
         <v>22</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -12256,7 +12259,7 @@
         <v>22</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -12307,7 +12310,7 @@
         <v>22</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -12436,10 +12439,10 @@
         <v>446</v>
       </c>
       <c r="P35" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -12460,7 +12463,7 @@
         <v>22</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="H36" s="7">
         <v>3</v>
@@ -12469,13 +12472,13 @@
         <v>2009</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M36" s="7">
         <v>3</v>
@@ -12508,10 +12511,10 @@
         <v>454</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>274</v>
+        <v>455</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H37" s="7">
         <v>8</v>
@@ -12520,13 +12523,13 @@
         <v>4931</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M37" s="7">
         <v>13</v>
@@ -12535,13 +12538,13 @@
         <v>9060</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -12556,13 +12559,13 @@
         <v>2739</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -12571,13 +12574,13 @@
         <v>471</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>466</v>
+        <v>214</v>
       </c>
       <c r="M38" s="7">
         <v>5</v>
@@ -12834,7 +12837,7 @@
         <v>486</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>440</v>
+        <v>487</v>
       </c>
       <c r="M43" s="7">
         <v>27</v>
@@ -12843,13 +12846,13 @@
         <v>15729</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>454</v>
+        <v>490</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -12864,13 +12867,13 @@
         <v>6082</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>147</v>
+        <v>492</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>490</v>
+        <v>134</v>
       </c>
       <c r="H44" s="7">
         <v>15</v>
@@ -12879,13 +12882,13 @@
         <v>13032</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="M44" s="7">
         <v>24</v>
@@ -12894,13 +12897,13 @@
         <v>19114</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -12915,13 +12918,13 @@
         <v>688</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H45" s="7">
         <v>8</v>
@@ -12930,13 +12933,13 @@
         <v>4790</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="M45" s="7">
         <v>9</v>
@@ -12948,10 +12951,10 @@
         <v>467</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>503</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -12966,13 +12969,13 @@
         <v>4789</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>504</v>
+        <v>394</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>405</v>
+        <v>505</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H46" s="7">
         <v>11</v>
@@ -12981,13 +12984,13 @@
         <v>6841</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M46" s="7">
         <v>18</v>
@@ -12996,13 +12999,13 @@
         <v>11629</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>127</v>
+        <v>511</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -13017,13 +13020,13 @@
         <v>2129</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="H47" s="7">
         <v>1</v>
@@ -13032,13 +13035,13 @@
         <v>427</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="M47" s="7">
         <v>4</v>
@@ -13047,13 +13050,13 @@
         <v>2557</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -13121,13 +13124,13 @@
         <v>1409</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="H49" s="7">
         <v>2</v>
@@ -13136,13 +13139,13 @@
         <v>1119</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="M49" s="7">
         <v>4</v>
@@ -13154,10 +13157,10 @@
         <v>368</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -13172,13 +13175,13 @@
         <v>658</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>526</v>
+        <v>387</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -13193,7 +13196,7 @@
         <v>22</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M50" s="7">
         <v>1</v>
@@ -13202,13 +13205,13 @@
         <v>658</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -13223,13 +13226,13 @@
         <v>361</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>531</v>
+        <v>400</v>
       </c>
       <c r="H51" s="7">
         <v>1</v>
@@ -13259,7 +13262,7 @@
         <v>21</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -13274,13 +13277,13 @@
         <v>18996</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>406</v>
+        <v>536</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H52" s="7">
         <v>105</v>
@@ -13289,13 +13292,13 @@
         <v>53334</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>95</v>
+        <v>540</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="M52" s="7">
         <v>134</v>
@@ -13304,13 +13307,13 @@
         <v>72330</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>541</v>
+        <v>354</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -13325,13 +13328,13 @@
         <v>14400</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>486</v>
+        <v>544</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="H53" s="7">
         <v>56</v>
@@ -13340,13 +13343,13 @@
         <v>34939</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="M53" s="7">
         <v>78</v>
@@ -13355,13 +13358,13 @@
         <v>49339</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>549</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -13376,13 +13379,13 @@
         <v>1959</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="H54" s="7">
         <v>16</v>
@@ -13391,13 +13394,13 @@
         <v>9499</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="M54" s="7">
         <v>19</v>
@@ -13406,13 +13409,13 @@
         <v>11458</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>558</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -13427,13 +13430,13 @@
         <v>20056</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H55" s="7">
         <v>49</v>
@@ -13442,13 +13445,13 @@
         <v>28113</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M55" s="7">
         <v>78</v>
@@ -13457,13 +13460,13 @@
         <v>48170</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -13478,13 +13481,13 @@
         <v>6360</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H56" s="7">
         <v>10</v>
@@ -13493,13 +13496,13 @@
         <v>4937</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M56" s="7">
         <v>19</v>
@@ -13511,10 +13514,10 @@
         <v>282</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>557</v>
+        <v>483</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P55S2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P55S2-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB787941-675B-452D-B325-6358DD85A70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D1856C3-9044-401B-8388-632DD8DEA88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{97AC94D7-A97C-4B7B-8A33-119254697BD0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{73BA77B2-4D32-49D6-9CF4-A9E0811C9A2C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2264" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2264" uniqueCount="578">
   <si>
     <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2007 (Tasa respuesta: 0,14%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Ayuda pública: Otro</t>
@@ -98,10 +98,10 @@
     <t>Un familiar que vive con usted</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -122,7 +122,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -143,13 +143,13 @@
     <t>22,11%</t>
   </si>
   <si>
-    <t>83,89%</t>
+    <t>80,46%</t>
   </si>
   <si>
     <t>18,98%</t>
   </si>
   <si>
-    <t>72,36%</t>
+    <t>70,65%</t>
   </si>
   <si>
     <t>21,15%</t>
@@ -161,19 +161,19 @@
     <t>18,15%</t>
   </si>
   <si>
-    <t>67,49%</t>
+    <t>73,71%</t>
   </si>
   <si>
     <t>17,64%</t>
   </si>
   <si>
-    <t>76,14%</t>
+    <t>76,93%</t>
   </si>
   <si>
     <t>15,14%</t>
   </si>
   <si>
-    <t>70,36%</t>
+    <t>61,92%</t>
   </si>
   <si>
     <t>39,1%</t>
@@ -185,10 +185,7 @@
     <t>47,73%</t>
   </si>
   <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
+    <t>84,37%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -200,1570 +197,1579 @@
     <t>18,42%</t>
   </si>
   <si>
-    <t>71,56%</t>
+    <t>70,79%</t>
   </si>
   <si>
     <t>12,55%</t>
   </si>
   <si>
-    <t>48,12%</t>
+    <t>55,61%</t>
   </si>
   <si>
     <t>17,62%</t>
   </si>
   <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2012 (Tasa respuesta: 0,74%)</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
     <t>72,48%</t>
   </si>
   <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2016 (Tasa respuesta: 0,43%)</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
   </si>
   <si>
     <t>9,17%</t>
   </si>
   <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2012 (Tasa respuesta: 0,74%)</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2023 (Tasa respuesta: 3,83%)</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
   </si>
   <si>
     <t>14,97%</t>
   </si>
   <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
   </si>
   <si>
     <t>55,31%</t>
   </si>
   <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2015 (Tasa respuesta: 0,43%)</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
   </si>
   <si>
     <t>5,75%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2023 (Tasa respuesta: 3,83%)</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
   </si>
   <si>
     <t>9,25%</t>
@@ -2178,7 +2184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851A1BD6-B358-49DD-A2D6-3DFEB8E78136}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D8678C-207D-4C20-BC9B-5542AD758534}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4239,10 +4245,10 @@
         <v>47</v>
       </c>
       <c r="P44" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,7 +4475,7 @@
         <v>22</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -4499,7 +4505,7 @@
         <v>22</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,7 +4526,7 @@
         <v>22</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H50" s="7">
         <v>1</v>
@@ -4529,13 +4535,13 @@
         <v>1167</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L50" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M50" s="7">
         <v>1</v>
@@ -4544,13 +4550,13 @@
         <v>1167</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q50" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,7 +4577,7 @@
         <v>22</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H51" s="7">
         <v>1</v>
@@ -4580,13 +4586,13 @@
         <v>1117</v>
       </c>
       <c r="J51" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L51" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L51" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M51" s="7">
         <v>1</v>
@@ -4595,13 +4601,13 @@
         <v>1116</v>
       </c>
       <c r="O51" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q51" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="P51" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q51" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,7 +4628,7 @@
         <v>22</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H52" s="7">
         <v>2</v>
@@ -4631,13 +4637,13 @@
         <v>1990</v>
       </c>
       <c r="J52" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M52" s="7">
         <v>2</v>
@@ -4646,13 +4652,13 @@
         <v>1990</v>
       </c>
       <c r="O52" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q52" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,7 +4673,7 @@
         <v>872</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>21</v>
@@ -4682,13 +4688,13 @@
         <v>2064</v>
       </c>
       <c r="J53" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L53" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M53" s="7">
         <v>3</v>
@@ -4697,13 +4703,13 @@
         <v>2936</v>
       </c>
       <c r="O53" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P53" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P53" s="7" t="s">
+      <c r="Q53" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,7 +4730,7 @@
         <v>22</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -4754,7 +4760,7 @@
         <v>22</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4769,7 +4775,7 @@
         <v>2090</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>21</v>
@@ -4799,13 +4805,13 @@
         <v>2090</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q55" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,7 +4832,7 @@
         <v>22</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -4856,7 +4862,7 @@
         <v>22</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4912,7 +4918,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -4933,7 +4939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7EFAA5B-E119-4CB5-AB7B-43EF2109418B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132AD2C4-DE4B-4481-9991-4D97E1E0282D}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4950,7 +4956,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5506,7 +5512,7 @@
         <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5521,22 +5527,22 @@
         <v>22</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5557,7 +5563,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5572,22 +5578,22 @@
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5608,7 +5614,7 @@
         <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -5623,22 +5629,22 @@
         <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5653,7 +5659,7 @@
         <v>1057</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>21</v>
@@ -5668,13 +5674,13 @@
         <v>4417</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -5683,13 +5689,13 @@
         <v>5474</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5710,7 +5716,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -5719,13 +5725,13 @@
         <v>1164</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -5734,13 +5740,13 @@
         <v>1164</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5761,7 +5767,7 @@
         <v>22</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -5776,22 +5782,22 @@
         <v>22</v>
       </c>
       <c r="L18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5806,7 +5812,7 @@
         <v>2147</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>21</v>
@@ -5821,13 +5827,13 @@
         <v>1976</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -5836,13 +5842,13 @@
         <v>4123</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5863,7 +5869,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5878,22 +5884,22 @@
         <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5967,23 +5973,23 @@
         <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="M22" s="7">
         <v>0</v>
       </c>
@@ -5997,7 +6003,7 @@
         <v>22</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6018,23 +6024,23 @@
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="M23" s="7">
         <v>0</v>
       </c>
@@ -6048,7 +6054,7 @@
         <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6069,23 +6075,23 @@
         <v>22</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="M24" s="7">
         <v>0</v>
       </c>
@@ -6099,7 +6105,7 @@
         <v>22</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6114,7 +6120,7 @@
         <v>1157</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>21</v>
@@ -6129,13 +6135,13 @@
         <v>4274</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -6144,13 +6150,13 @@
         <v>5430</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6165,7 +6171,7 @@
         <v>1101</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>21</v>
@@ -6180,13 +6186,13 @@
         <v>2211</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -6195,13 +6201,13 @@
         <v>3311</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6222,23 +6228,23 @@
         <v>22</v>
       </c>
       <c r="G27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
-        <v>0</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="M27" s="7">
         <v>0</v>
       </c>
@@ -6252,7 +6258,7 @@
         <v>22</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6267,7 +6273,7 @@
         <v>1168</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>21</v>
@@ -6282,13 +6288,13 @@
         <v>1080</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -6297,13 +6303,13 @@
         <v>2248</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6324,7 +6330,7 @@
         <v>22</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -6333,13 +6339,13 @@
         <v>2302</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -6348,13 +6354,13 @@
         <v>2302</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6443,7 +6449,7 @@
         <v>22</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -6458,7 +6464,7 @@
         <v>22</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6494,7 +6500,7 @@
         <v>22</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6509,7 +6515,7 @@
         <v>22</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6545,7 +6551,7 @@
         <v>22</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -6560,7 +6566,7 @@
         <v>22</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6590,13 +6596,13 @@
         <v>2094</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -6605,13 +6611,13 @@
         <v>3156</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6641,13 +6647,13 @@
         <v>3138</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -6656,13 +6662,13 @@
         <v>3138</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6692,13 +6698,13 @@
         <v>1091</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -6707,13 +6713,13 @@
         <v>1091</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6743,13 +6749,13 @@
         <v>1091</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -6758,13 +6764,13 @@
         <v>1091</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6794,13 +6800,13 @@
         <v>999</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -6809,13 +6815,13 @@
         <v>999</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6889,23 +6895,23 @@
         <v>22</v>
       </c>
       <c r="G40" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H40" s="7">
-        <v>0</v>
-      </c>
-      <c r="I40" s="7">
-        <v>0</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="M40" s="7">
         <v>0</v>
       </c>
@@ -6919,7 +6925,7 @@
         <v>22</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6940,23 +6946,23 @@
         <v>22</v>
       </c>
       <c r="G41" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H41" s="7">
-        <v>0</v>
-      </c>
-      <c r="I41" s="7">
-        <v>0</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="M41" s="7">
         <v>0</v>
       </c>
@@ -6970,7 +6976,7 @@
         <v>22</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6991,23 +6997,23 @@
         <v>22</v>
       </c>
       <c r="G42" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H42" s="7">
-        <v>0</v>
-      </c>
-      <c r="I42" s="7">
-        <v>0</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="M42" s="7">
         <v>0</v>
       </c>
@@ -7021,7 +7027,7 @@
         <v>22</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7042,7 +7048,7 @@
         <v>22</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H43" s="7">
         <v>5</v>
@@ -7051,13 +7057,13 @@
         <v>5104</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M43" s="7">
         <v>5</v>
@@ -7066,13 +7072,13 @@
         <v>5104</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7087,13 +7093,13 @@
         <v>3027</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H44" s="7">
         <v>2</v>
@@ -7102,13 +7108,13 @@
         <v>1997</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M44" s="7">
         <v>5</v>
@@ -7117,13 +7123,13 @@
         <v>5024</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7144,23 +7150,23 @@
         <v>22</v>
       </c>
       <c r="G45" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7">
+        <v>0</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H45" s="7">
-        <v>0</v>
-      </c>
-      <c r="I45" s="7">
-        <v>0</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="M45" s="7">
         <v>0</v>
       </c>
@@ -7174,7 +7180,7 @@
         <v>22</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7189,13 +7195,13 @@
         <v>4085</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H46" s="7">
         <v>2</v>
@@ -7204,13 +7210,13 @@
         <v>2084</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M46" s="7">
         <v>6</v>
@@ -7219,13 +7225,13 @@
         <v>6169</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P46" s="7" t="s">
+      <c r="Q46" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7246,7 +7252,7 @@
         <v>22</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H47" s="7">
         <v>1</v>
@@ -7255,13 +7261,13 @@
         <v>957</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M47" s="7">
         <v>1</v>
@@ -7270,13 +7276,13 @@
         <v>957</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7350,37 +7356,37 @@
         <v>22</v>
       </c>
       <c r="G49" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L49" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H49" s="7">
-        <v>0</v>
-      </c>
-      <c r="I49" s="7">
-        <v>0</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L49" s="7" t="s">
+      <c r="M49" s="7">
+        <v>0</v>
+      </c>
+      <c r="N49" s="7">
+        <v>0</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="M49" s="7">
-        <v>0</v>
-      </c>
-      <c r="N49" s="7">
-        <v>0</v>
-      </c>
-      <c r="O49" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7401,37 +7407,37 @@
         <v>22</v>
       </c>
       <c r="G50" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0</v>
+      </c>
+      <c r="I50" s="7">
+        <v>0</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L50" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H50" s="7">
-        <v>0</v>
-      </c>
-      <c r="I50" s="7">
-        <v>0</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L50" s="7" t="s">
+      <c r="M50" s="7">
+        <v>0</v>
+      </c>
+      <c r="N50" s="7">
+        <v>0</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q50" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="M50" s="7">
-        <v>0</v>
-      </c>
-      <c r="N50" s="7">
-        <v>0</v>
-      </c>
-      <c r="O50" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7452,37 +7458,37 @@
         <v>22</v>
       </c>
       <c r="G51" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0</v>
+      </c>
+      <c r="I51" s="7">
+        <v>0</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L51" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H51" s="7">
-        <v>0</v>
-      </c>
-      <c r="I51" s="7">
-        <v>0</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L51" s="7" t="s">
+      <c r="M51" s="7">
+        <v>0</v>
+      </c>
+      <c r="N51" s="7">
+        <v>0</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q51" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="M51" s="7">
-        <v>0</v>
-      </c>
-      <c r="N51" s="7">
-        <v>0</v>
-      </c>
-      <c r="O51" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P51" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q51" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -7497,13 +7503,13 @@
         <v>3275</v>
       </c>
       <c r="E52" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F52" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="G52" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H52" s="7">
         <v>16</v>
@@ -7512,13 +7518,13 @@
         <v>17061</v>
       </c>
       <c r="J52" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K52" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K52" s="7" t="s">
+      <c r="L52" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M52" s="7">
         <v>19</v>
@@ -7527,13 +7533,13 @@
         <v>20337</v>
       </c>
       <c r="O52" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P52" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P52" s="7" t="s">
+      <c r="Q52" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -7548,13 +7554,13 @@
         <v>4128</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="G53" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H53" s="7">
         <v>7</v>
@@ -7563,13 +7569,13 @@
         <v>8509</v>
       </c>
       <c r="J53" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K53" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K53" s="7" t="s">
+      <c r="L53" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M53" s="7">
         <v>11</v>
@@ -7578,13 +7584,13 @@
         <v>12637</v>
       </c>
       <c r="O53" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P53" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P53" s="7" t="s">
+      <c r="Q53" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -7605,7 +7611,7 @@
         <v>22</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H54" s="7">
         <v>1</v>
@@ -7614,13 +7620,13 @@
         <v>1091</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L54" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M54" s="7">
         <v>1</v>
@@ -7629,13 +7635,13 @@
         <v>1091</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q54" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P54" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -7650,13 +7656,13 @@
         <v>7399</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="G55" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H55" s="7">
         <v>6</v>
@@ -7665,13 +7671,13 @@
         <v>6232</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K55" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K55" s="7" t="s">
+      <c r="L55" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M55" s="7">
         <v>13</v>
@@ -7680,13 +7686,13 @@
         <v>13631</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P55" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P55" s="7" t="s">
+      <c r="Q55" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -7707,7 +7713,7 @@
         <v>22</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H56" s="7">
         <v>4</v>
@@ -7716,13 +7722,13 @@
         <v>4258</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="L56" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M56" s="7">
         <v>4</v>
@@ -7731,13 +7737,13 @@
         <v>4258</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P56" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P56" s="7" t="s">
+      <c r="Q56" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -7793,7 +7799,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -7814,7 +7820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F81CB0-C9EA-4F30-84E3-B8AC1D0AFB19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5705865-9B36-49DB-B62A-5DF87ADCE765}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7831,7 +7837,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7974,7 +7980,7 @@
         <v>22</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8025,7 +8031,7 @@
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8076,7 +8082,7 @@
         <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8124,7 +8130,7 @@
         <v>24</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>26</v>
@@ -8178,7 +8184,7 @@
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8229,7 +8235,7 @@
         <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8280,7 +8286,7 @@
         <v>22</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8331,7 +8337,7 @@
         <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8414,13 +8420,13 @@
         <v>1205</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>207</v>
+        <v>24</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -8429,13 +8435,13 @@
         <v>1205</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8471,7 +8477,7 @@
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -8486,7 +8492,7 @@
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8522,7 +8528,7 @@
         <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -8537,7 +8543,7 @@
         <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8552,13 +8558,13 @@
         <v>1603</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -8567,13 +8573,13 @@
         <v>1205</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>24</v>
+        <v>211</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -8582,13 +8588,13 @@
         <v>2808</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8618,13 +8624,13 @@
         <v>969</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -8633,13 +8639,13 @@
         <v>969</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8675,7 +8681,7 @@
         <v>22</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -8690,7 +8696,7 @@
         <v>22</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8705,13 +8711,13 @@
         <v>799</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -8720,13 +8726,13 @@
         <v>1205</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -8735,13 +8741,13 @@
         <v>2004</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8756,13 +8762,13 @@
         <v>1742</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -8777,7 +8783,7 @@
         <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -8786,13 +8792,13 @@
         <v>1741</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9309,7 +9315,7 @@
         <v>22</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -9324,7 +9330,7 @@
         <v>22</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -9339,7 +9345,7 @@
         <v>22</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9360,7 +9366,7 @@
         <v>22</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -9375,7 +9381,7 @@
         <v>22</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -9390,7 +9396,7 @@
         <v>22</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9411,7 +9417,7 @@
         <v>22</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -9426,7 +9432,7 @@
         <v>22</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -9441,7 +9447,7 @@
         <v>22</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9456,13 +9462,13 @@
         <v>809</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -9471,13 +9477,13 @@
         <v>1698</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -9486,13 +9492,13 @@
         <v>2508</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9513,7 +9519,7 @@
         <v>22</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -9522,13 +9528,13 @@
         <v>1033</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -9537,13 +9543,13 @@
         <v>1033</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9564,7 +9570,7 @@
         <v>22</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -9579,7 +9585,7 @@
         <v>22</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -9594,7 +9600,7 @@
         <v>22</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9609,7 +9615,7 @@
         <v>2246</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>21</v>
@@ -9624,13 +9630,13 @@
         <v>997</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -9639,13 +9645,13 @@
         <v>3243</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9660,13 +9666,13 @@
         <v>970</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -9675,13 +9681,13 @@
         <v>1022</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -9690,13 +9696,13 @@
         <v>1991</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9764,7 +9770,7 @@
         <v>792</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>21</v>
@@ -9785,7 +9791,7 @@
         <v>22</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -9794,13 +9800,13 @@
         <v>791</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9821,7 +9827,7 @@
         <v>22</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -9836,7 +9842,7 @@
         <v>22</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -9851,7 +9857,7 @@
         <v>22</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9872,7 +9878,7 @@
         <v>22</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -9887,7 +9893,7 @@
         <v>22</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -9902,7 +9908,7 @@
         <v>22</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9923,7 +9929,7 @@
         <v>22</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
@@ -9932,13 +9938,13 @@
         <v>1286</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="M43" s="7">
         <v>1</v>
@@ -9947,13 +9953,13 @@
         <v>1285</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9968,7 +9974,7 @@
         <v>764</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>21</v>
@@ -9983,7 +9989,7 @@
         <v>2267</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>21</v>
@@ -9998,10 +10004,10 @@
         <v>3030</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="Q44" s="7" t="s">
         <v>259</v>
@@ -10025,7 +10031,7 @@
         <v>22</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -10040,7 +10046,7 @@
         <v>22</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -10055,7 +10061,7 @@
         <v>22</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -10070,7 +10076,7 @@
         <v>764</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>21</v>
@@ -10127,7 +10133,7 @@
         <v>22</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -10142,7 +10148,7 @@
         <v>22</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -10157,7 +10163,7 @@
         <v>22</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -10246,7 +10252,7 @@
         <v>21</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>267</v>
+        <v>64</v>
       </c>
       <c r="M49" s="7">
         <v>2</v>
@@ -10255,13 +10261,13 @@
         <v>1996</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -10282,7 +10288,7 @@
         <v>22</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -10297,7 +10303,7 @@
         <v>22</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -10312,7 +10318,7 @@
         <v>22</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -10333,7 +10339,7 @@
         <v>22</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -10348,7 +10354,7 @@
         <v>22</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M51" s="7">
         <v>0</v>
@@ -10363,7 +10369,7 @@
         <v>22</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -10378,13 +10384,13 @@
         <v>4051</v>
       </c>
       <c r="E52" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F52" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="G52" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H52" s="7">
         <v>5</v>
@@ -10486,7 +10492,7 @@
         <v>22</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -10501,7 +10507,7 @@
         <v>22</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M54" s="7">
         <v>0</v>
@@ -10516,7 +10522,7 @@
         <v>22</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -10585,10 +10591,10 @@
         <v>296</v>
       </c>
       <c r="F56" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H56" s="7">
         <v>1</v>
@@ -10597,13 +10603,13 @@
         <v>1022</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M56" s="7">
         <v>4</v>
@@ -10612,13 +10618,13 @@
         <v>3733</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P56" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="P56" s="7" t="s">
+      <c r="Q56" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -10674,7 +10680,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -10695,7 +10701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E4BBB3-EDEC-48FB-8665-BA32A853F087}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D1B1BEE-3009-4A14-A534-BF604BBE6B83}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10712,7 +10718,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -10825,7 +10831,7 @@
         <v>22</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -10840,7 +10846,7 @@
         <v>22</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -10855,7 +10861,7 @@
         <v>22</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -10876,7 +10882,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -10891,7 +10897,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -10906,7 +10912,7 @@
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -10927,7 +10933,7 @@
         <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -10936,7 +10942,7 @@
         <v>328</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>21</v>
@@ -10951,13 +10957,13 @@
         <v>328</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -10972,13 +10978,13 @@
         <v>3309</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -10987,13 +10993,13 @@
         <v>5284</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -11002,13 +11008,13 @@
         <v>8593</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -11023,13 +11029,13 @@
         <v>1000</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -11038,13 +11044,13 @@
         <v>904</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -11053,13 +11059,13 @@
         <v>1904</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -11080,7 +11086,7 @@
         <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -11089,13 +11095,13 @@
         <v>383</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -11104,13 +11110,13 @@
         <v>383</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -11125,13 +11131,13 @@
         <v>704</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -11140,13 +11146,13 @@
         <v>412</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -11155,13 +11161,13 @@
         <v>1116</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -11182,7 +11188,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -11191,13 +11197,13 @@
         <v>430</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -11206,13 +11212,13 @@
         <v>430</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -11280,14 +11286,14 @@
         <v>632</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>340</v>
-      </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
@@ -11301,7 +11307,7 @@
         <v>22</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -11310,13 +11316,13 @@
         <v>632</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -11337,7 +11343,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -11352,7 +11358,7 @@
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -11367,7 +11373,7 @@
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -11382,14 +11388,14 @@
         <v>361</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>345</v>
-      </c>
       <c r="H15" s="7">
         <v>0</v>
       </c>
@@ -11403,7 +11409,7 @@
         <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -11412,13 +11418,13 @@
         <v>361</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -11433,13 +11439,13 @@
         <v>7125</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -11448,13 +11454,13 @@
         <v>10040</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -11463,13 +11469,13 @@
         <v>17165</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -11484,13 +11490,13 @@
         <v>3787</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -11499,13 +11505,13 @@
         <v>6152</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -11514,13 +11520,13 @@
         <v>9939</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -11535,14 +11541,14 @@
         <v>522</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>367</v>
-      </c>
       <c r="H18" s="7">
         <v>0</v>
       </c>
@@ -11556,7 +11562,7 @@
         <v>22</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -11565,13 +11571,13 @@
         <v>522</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -11619,7 +11625,7 @@
         <v>375</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>376</v>
@@ -11658,7 +11664,7 @@
         <v>21</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>79</v>
+        <v>380</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -11667,13 +11673,13 @@
         <v>1648</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -11747,7 +11753,7 @@
         <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -11756,13 +11762,13 @@
         <v>508</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -11771,13 +11777,13 @@
         <v>508</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -11798,7 +11804,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -11813,7 +11819,7 @@
         <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -11828,7 +11834,7 @@
         <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -11849,7 +11855,7 @@
         <v>22</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -11864,7 +11870,7 @@
         <v>22</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -11879,7 +11885,7 @@
         <v>22</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -11894,13 +11900,13 @@
         <v>4497</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
@@ -11909,13 +11915,13 @@
         <v>15085</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M25" s="7">
         <v>35</v>
@@ -11924,13 +11930,13 @@
         <v>19583</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -11945,13 +11951,13 @@
         <v>1638</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -11960,13 +11966,13 @@
         <v>9144</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M26" s="7">
         <v>20</v>
@@ -11975,13 +11981,13 @@
         <v>10782</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>277</v>
+        <v>406</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>405</v>
+        <v>271</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -11996,13 +12002,13 @@
         <v>749</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H27" s="7">
         <v>4</v>
@@ -12011,13 +12017,13 @@
         <v>2317</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M27" s="7">
         <v>5</v>
@@ -12026,13 +12032,13 @@
         <v>3066</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -12047,13 +12053,13 @@
         <v>6022</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -12062,13 +12068,13 @@
         <v>10120</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M28" s="7">
         <v>26</v>
@@ -12077,13 +12083,13 @@
         <v>16142</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -12098,13 +12104,13 @@
         <v>825</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -12113,13 +12119,13 @@
         <v>2627</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -12128,13 +12134,13 @@
         <v>3452</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -12208,7 +12214,7 @@
         <v>22</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -12223,7 +12229,7 @@
         <v>22</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -12238,7 +12244,7 @@
         <v>22</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -12259,7 +12265,7 @@
         <v>22</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -12274,7 +12280,7 @@
         <v>22</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -12289,7 +12295,7 @@
         <v>22</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -12310,7 +12316,7 @@
         <v>22</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -12325,7 +12331,7 @@
         <v>22</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -12340,7 +12346,7 @@
         <v>22</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -12355,13 +12361,13 @@
         <v>2044</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H34" s="7">
         <v>15</v>
@@ -12370,13 +12376,13 @@
         <v>9217</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M34" s="7">
         <v>17</v>
@@ -12385,13 +12391,13 @@
         <v>11261</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -12406,13 +12412,13 @@
         <v>1894</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H35" s="7">
         <v>9</v>
@@ -12421,13 +12427,13 @@
         <v>5706</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M35" s="7">
         <v>11</v>
@@ -12436,13 +12442,13 @@
         <v>7601</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -12463,7 +12469,7 @@
         <v>22</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H36" s="7">
         <v>3</v>
@@ -12472,13 +12478,13 @@
         <v>2009</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M36" s="7">
         <v>3</v>
@@ -12487,13 +12493,13 @@
         <v>2009</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -12508,13 +12514,13 @@
         <v>4129</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H37" s="7">
         <v>8</v>
@@ -12523,13 +12529,13 @@
         <v>4931</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M37" s="7">
         <v>13</v>
@@ -12538,13 +12544,13 @@
         <v>9060</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -12559,13 +12565,13 @@
         <v>2739</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -12574,13 +12580,13 @@
         <v>471</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>214</v>
+        <v>468</v>
       </c>
       <c r="M38" s="7">
         <v>5</v>
@@ -12589,13 +12595,13 @@
         <v>3210</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>467</v>
+        <v>258</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -12663,13 +12669,13 @@
         <v>777</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -12678,13 +12684,13 @@
         <v>611</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M40" s="7">
         <v>2</v>
@@ -12693,13 +12699,13 @@
         <v>1389</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -12714,13 +12720,13 @@
         <v>658</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -12735,7 +12741,7 @@
         <v>22</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M41" s="7">
         <v>1</v>
@@ -12744,13 +12750,13 @@
         <v>658</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -12771,7 +12777,7 @@
         <v>22</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -12786,7 +12792,7 @@
         <v>22</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -12801,7 +12807,7 @@
         <v>22</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -12816,13 +12822,13 @@
         <v>2020</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H43" s="7">
         <v>23</v>
@@ -12831,13 +12837,13 @@
         <v>13708</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M43" s="7">
         <v>27</v>
@@ -12846,13 +12852,13 @@
         <v>15729</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -12867,13 +12873,13 @@
         <v>6082</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>134</v>
+        <v>494</v>
       </c>
       <c r="H44" s="7">
         <v>15</v>
@@ -12882,13 +12888,13 @@
         <v>13032</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="M44" s="7">
         <v>24</v>
@@ -12897,13 +12903,13 @@
         <v>19114</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -12918,13 +12924,13 @@
         <v>688</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H45" s="7">
         <v>8</v>
@@ -12933,13 +12939,13 @@
         <v>4790</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="M45" s="7">
         <v>9</v>
@@ -12948,13 +12954,13 @@
         <v>5477</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>467</v>
+        <v>258</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -12969,13 +12975,13 @@
         <v>4789</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H46" s="7">
         <v>11</v>
@@ -12984,13 +12990,13 @@
         <v>6841</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="M46" s="7">
         <v>18</v>
@@ -12999,13 +13005,13 @@
         <v>11629</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>510</v>
+        <v>81</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -13020,13 +13026,13 @@
         <v>2129</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H47" s="7">
         <v>1</v>
@@ -13035,13 +13041,13 @@
         <v>427</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M47" s="7">
         <v>4</v>
@@ -13050,13 +13056,13 @@
         <v>2557</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -13124,13 +13130,13 @@
         <v>1409</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H49" s="7">
         <v>2</v>
@@ -13139,13 +13145,13 @@
         <v>1119</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M49" s="7">
         <v>4</v>
@@ -13154,13 +13160,13 @@
         <v>2529</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -13175,13 +13181,13 @@
         <v>658</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -13196,7 +13202,7 @@
         <v>22</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M50" s="7">
         <v>1</v>
@@ -13205,13 +13211,13 @@
         <v>658</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -13226,13 +13232,13 @@
         <v>361</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H51" s="7">
         <v>1</v>
@@ -13241,13 +13247,13 @@
         <v>328</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M51" s="7">
         <v>2</v>
@@ -13256,13 +13262,13 @@
         <v>689</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -13277,13 +13283,13 @@
         <v>18996</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H52" s="7">
         <v>105</v>
@@ -13292,13 +13298,13 @@
         <v>53334</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M52" s="7">
         <v>134</v>
@@ -13307,13 +13313,13 @@
         <v>72330</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -13328,13 +13334,13 @@
         <v>14400</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H53" s="7">
         <v>56</v>
@@ -13343,13 +13349,13 @@
         <v>34939</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M53" s="7">
         <v>78</v>
@@ -13358,13 +13364,13 @@
         <v>49339</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -13379,13 +13385,13 @@
         <v>1959</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H54" s="7">
         <v>16</v>
@@ -13394,13 +13400,13 @@
         <v>9499</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M54" s="7">
         <v>19</v>
@@ -13409,13 +13415,13 @@
         <v>11458</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>214</v>
+        <v>468</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -13430,13 +13436,13 @@
         <v>20056</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H55" s="7">
         <v>49</v>
@@ -13445,13 +13451,13 @@
         <v>28113</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M55" s="7">
         <v>78</v>
@@ -13460,13 +13466,13 @@
         <v>48170</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -13481,13 +13487,13 @@
         <v>6360</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H56" s="7">
         <v>10</v>
@@ -13496,13 +13502,13 @@
         <v>4937</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M56" s="7">
         <v>19</v>
@@ -13511,13 +13517,13 @@
         <v>11296</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>282</v>
+        <v>576</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -13573,7 +13579,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
